--- a/biology/Botanique/Château_de_Brantes/Château_de_Brantes.xlsx
+++ b/biology/Botanique/Château_de_Brantes/Château_de_Brantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Brantes</t>
+          <t>Château_de_Brantes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Brantes est un château construit au XVIIIe siècle sur la commune de Sorgues dans le département de Vaucluse, en région Provence-Alpes-Côte d'Azur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Brantes</t>
+          <t>Château_de_Brantes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château est construit au XVIIIe siècle par Pierre del Bianco, marquis de Brantes, payeur des soldats de l'État papal d'Avignon. Il est agrandi en 1816 par le général-comte Jean-Girard Lacuée de Cessac, ancien ministre de la Guerre, et par son épouse Louise Augustine Sibille Blanco de Brantes, qui crée le parc. 
-Le parc est restauré et le jardin contemporain commencé en 1959 par le paysagiste danois Mogens Tvede, héritiers du château[1]. Il comporte notamment 3 bassins miroirs, ornés de statues, et alimentés par les eaux de la Sorgue[2], ainsi qu'un jardin potager pédagogique[3].
-Le château est inscrit au titre des monuments historiques le 6 novembre 1987 et le 26 septembre 2016[4].
+Le parc est restauré et le jardin contemporain commencé en 1959 par le paysagiste danois Mogens Tvede, héritiers du château. Il comporte notamment 3 bassins miroirs, ornés de statues, et alimentés par les eaux de la Sorgue, ainsi qu'un jardin potager pédagogique.
+Le château est inscrit au titre des monuments historiques le 6 novembre 1987 et le 26 septembre 2016.
 Le parc est distingué du label jardin remarquable.
 </t>
         </is>
